--- a/trade_history.xlsx
+++ b/trade_history.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>13888</v>
+        <v>24857</v>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>-193.58</t>
+          <t>-196.15</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -526,11 +526,11 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>13888</v>
+        <v>24857</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -540,12 +540,12 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>140,626.29</t>
+          <t>140,627.33</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>P/L: %41.11 | Peak: 10.19</t>
+          <t>P/L: %41.11 | Peak: 5.69</t>
         </is>
       </c>
     </row>
@@ -561,11 +561,11 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>15368</v>
+        <v>27507</v>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>-272.14</t>
+          <t>-280.18</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>15368</v>
+        <v>27507</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -610,12 +610,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>147,885.83</t>
+          <t>147,887.34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>P/L: %5.57 | Peak: 9.93</t>
+          <t>P/L: %5.57 | Peak: 5.55</t>
         </is>
       </c>
     </row>
@@ -631,11 +631,11 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>16162</v>
+        <v>28927</v>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>-292.23</t>
+          <t>-294.27</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -666,11 +666,11 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>16162</v>
+        <v>28927</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13.96</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>224,878.05</t>
+          <t>224,881.40</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>P/L: %52.57 | Peak: 13.26</t>
+          <t>P/L: %52.57 | Peak: 7.41</t>
         </is>
       </c>
     </row>
@@ -701,11 +701,11 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>14650</v>
+        <v>26220</v>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>-449.21</t>
+          <t>-444.40</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -736,11 +736,11 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>14650</v>
+        <v>26220</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16.16</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>235,821.30</t>
+          <t>235,824.58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>P/L: %5.28 | Peak: 16.88</t>
+          <t>P/L: %5.28 | Peak: 9.43</t>
         </is>
       </c>
     </row>
@@ -771,11 +771,11 @@
         </is>
       </c>
       <c r="C10" s="1" t="n">
-        <v>13615</v>
+        <v>24369</v>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>17.32</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>-462.12</t>
+          <t>-470.91</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -806,11 +806,11 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>13615</v>
+        <v>24369</v>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>17.19</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -820,12 +820,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>233,111.65</t>
+          <t>233,114.80</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>P/L: %-0.75 | Peak: 19.10</t>
+          <t>P/L: %-0.75 | Peak: 10.67</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>-444.36</t>
+          <t>-441.21</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>277,958.51</t>
+          <t>277,961.66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>-534.31</t>
+          <t>-531.16</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>301,655.35</t>
+          <t>301,658.50</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>-602.04</t>
+          <t>-598.90</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>346,764.22</t>
+          <t>346,767.36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>-679.28</t>
+          <t>-676.14</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>336,999.02</t>
+          <t>337,002.17</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>-664.61</t>
+          <t>-661.46</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0400, R2: 0.91)</t>
+          <t>(Eğim: 0.0366, R2: 0.85)</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>358,179.38</t>
+          <t>358,182.53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>-636.37</t>
+          <t>-633.23</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0325, R2: 0.82)</t>
+          <t>(Eğim: 0.0317, R2: 0.85)</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>329,615.00</t>
+          <t>329,618.14</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
@@ -1252,20 +1252,20 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>DERHL</t>
+          <t>TRHOL</t>
         </is>
       </c>
       <c r="C24" s="1" t="n">
-        <v>4185</v>
+        <v>3329</v>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>78.75</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
@@ -1275,54 +1275,54 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>-612.89</t>
+          <t>-612.00</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0468, R2: 0.86)</t>
+          <t>(Eğim: 0.0499, R2: 0.86)</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>DERHL</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>4185</v>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>95.25</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>VOLUME STOP</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>397,211.12</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %20.95 | Peak: 95.25</t>
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>TRHOL</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>3329</v>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>STOP LOSS</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>310,359.21</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-5.45 | Peak: 104.00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1331,11 +1331,11 @@
         </is>
       </c>
       <c r="C26" s="1" t="n">
-        <v>3793</v>
+        <v>3258</v>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>104.70</t>
+          <t>95.25</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
@@ -1345,19 +1345,19 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>-710.23</t>
+          <t>-585.94</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0504, R2: 0.90)</t>
+          <t>(Eğim: 0.0431, R2: 0.91)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1366,11 +1366,11 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>3793</v>
+        <v>3258</v>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>124.60</t>
+          <t>138.40</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1380,19 +1380,19 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>470,952.35</t>
+          <t>449,419.42</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>P/L: %19.01 | Peak: 138.40</t>
+          <t>P/L: %45.30 | Peak: 126.60</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1401,11 +1401,11 @@
         </is>
       </c>
       <c r="C28" s="1" t="n">
-        <v>3540</v>
+        <v>3606</v>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>133.00</t>
+          <t>124.60</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
@@ -1415,19 +1415,19 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>-809.29</t>
+          <t>-786.79</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0465, R2: 0.91)</t>
+          <t>(Eğim: 0.0442, R2: 0.91)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1436,11 +1436,11 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>3540</v>
+        <v>3606</v>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>156.00</t>
+          <t>161.60</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1450,19 +1450,19 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>550,326.23</t>
+          <t>580,777.38</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>P/L: %17.29 | Peak: 161.60</t>
+          <t>P/L: %29.70 | Peak: 160.80</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1471,11 +1471,11 @@
         </is>
       </c>
       <c r="C30" s="1" t="n">
-        <v>21067</v>
+        <v>22348</v>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>25.99</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
@@ -1485,19 +1485,19 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>-1,097.11</t>
+          <t>-1,152.79</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0367, R2: 0.84)</t>
+          <t>(Eğim: 0.0349, R2: 0.83)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1506,11 +1506,11 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>21067</v>
+        <v>22348</v>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>39.60</t>
+          <t>37.67</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1520,32 +1520,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>831,487.55</t>
+          <t>838,901.17</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>P/L: %51.59 | Peak: 37.67</t>
+          <t>P/L: %44.94 | Peak: 34.24</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>TERA</t>
+          <t>SMRVA</t>
         </is>
       </c>
       <c r="C32" s="1" t="n">
-        <v>19975</v>
+        <v>5601</v>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>41.62</t>
+          <t>149.77</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
@@ -1555,32 +1555,32 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>-1,634.74</t>
+          <t>-1,651.45</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0480, R2: 0.93)</t>
+          <t>(Eğim: 0.0457, R2: 0.82)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>TERA</t>
+          <t>SMRVA</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
-        <v>19975</v>
+        <v>5601</v>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>37.46</t>
+          <t>140.79</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1590,19 +1590,19 @@
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>745,182.10</t>
+          <t>785,313.83</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>P/L: %-10.00 | Peak: 41.62</t>
+          <t>P/L: %-6.00 | Peak: 149.77</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1611,11 +1611,11 @@
         </is>
       </c>
       <c r="C34" s="1" t="n">
-        <v>22094</v>
+        <v>18866</v>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>33.73</t>
+          <t>41.62</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
@@ -1625,19 +1625,19 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>-1,483.66</t>
+          <t>-1,554.02</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0417, R2: 0.88)</t>
+          <t>(Eğim: 0.0414, R2: 0.91)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
@@ -1646,11 +1646,11 @@
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>22094</v>
+        <v>18866</v>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>30.85</t>
+          <t>37.46</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -1660,32 +1660,32 @@
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>678,697.92</t>
+          <t>703,800.00</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>P/L: %-8.54 | Peak: 33.73</t>
+          <t>P/L: %-10.00 | Peak: 41.62</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>EMKEL</t>
+          <t>TERA</t>
         </is>
       </c>
       <c r="C36" s="1" t="n">
-        <v>18343</v>
+        <v>20867</v>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>33.73</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
@@ -1695,32 +1695,32 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>-1,350.47</t>
+          <t>-1,399.34</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0323, R2: 0.95)</t>
+          <t>(Eğim: 0.0343, R2: 0.84)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>EMKEL</t>
+          <t>TERA</t>
         </is>
       </c>
       <c r="C37" s="3" t="n">
-        <v>18343</v>
+        <v>20867</v>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>33.30</t>
+          <t>30.85</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1730,32 +1730,32 @@
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>608,249.78</t>
+          <t>641,008.05</t>
         </is>
       </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>P/L: %-10.00 | Peak: 37.00</t>
+          <t>P/L: %-8.54 | Peak: 33.73</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>KLRHO</t>
+          <t>EMKEL</t>
         </is>
       </c>
       <c r="C38" s="1" t="n">
-        <v>12228</v>
+        <v>17324</v>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>49.74</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
@@ -1765,54 +1765,54 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>-1,187.41</t>
+          <t>-1,261.93</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0370, R2: 0.84)</t>
+          <t>(Eğim: 0.0311, R2: 0.93)</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>2025-06-03</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>KLRHO</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>12228</v>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>61.75</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>SÜRE DOLDU (7D)</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>752,381.44</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %24.15 | Peak: 57.25</t>
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>EMKEL</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>17324</v>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>STOP LOSS</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>574,473.48</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-10.00 | Peak: 37.00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -1821,11 +1821,11 @@
         </is>
       </c>
       <c r="C40" s="1" t="n">
-        <v>11212</v>
+        <v>11549</v>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>67.10</t>
+          <t>49.74</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
@@ -1835,19 +1835,19 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>-1,448.40</t>
+          <t>-1,122.69</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0491, R2: 0.95)</t>
+          <t>(Eğim: 0.0375, R2: 0.89)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -1856,33 +1856,33 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>11212</v>
+        <v>11549</v>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>61.75</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>STOP LOSS</t>
+          <t>SÜRE DOLDU (7D)</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>781,821.92</t>
+          <t>710,601.75</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>P/L: %4.32 | Peak: 72.50</t>
+          <t>P/L: %24.15 | Peak: 57.25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1891,11 +1891,11 @@
         </is>
       </c>
       <c r="C42" s="1" t="n">
-        <v>11936</v>
+        <v>10590</v>
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>65.50</t>
+          <t>67.10</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
@@ -1905,19 +1905,19 @@
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>-1,549.69</t>
+          <t>-1,408.41</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0486, R2: 0.94)</t>
+          <t>(Eğim: 0.0471, R2: 0.96)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -1926,46 +1926,46 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>11936</v>
+        <v>10590</v>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>67.30</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>SÜRE DOLDU (7D)</t>
+          <t>STOP LOSS</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>800,136.56</t>
+          <t>738,408.99</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>P/L: %2.75 | Peak: 66.50</t>
+          <t>P/L: %4.32 | Peak: 72.50</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>TERA</t>
+          <t>KLRHO</t>
         </is>
       </c>
       <c r="C44" s="1" t="n">
-        <v>12262</v>
+        <v>11273</v>
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>65.25</t>
+          <t>65.50</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
@@ -1975,54 +1975,54 @@
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>-1,559.13</t>
+          <t>-1,449.27</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0465, R2: 0.95)</t>
+          <t>(Eğim: 0.0396, R2: 0.93)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>TERA</t>
+          <t>KLRHO</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>12262</v>
+        <v>11273</v>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>65.93</t>
+          <t>67.30</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>VOLUME STOP</t>
+          <t>SÜRE DOLDU (7D)</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>805,196.51</t>
+          <t>755,706.32</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>P/L: %1.03 | Peak: 65.93</t>
+          <t>P/L: %2.75 | Peak: 66.50</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -2031,11 +2031,11 @@
         </is>
       </c>
       <c r="C46" s="1" t="n">
-        <v>11544</v>
+        <v>11581</v>
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>69.75</t>
+          <t>65.25</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
@@ -2045,67 +2045,67 @@
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>-1,607.88</t>
+          <t>-1,465.25</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0477, R2: 0.96)</t>
+          <t>(Eğim: 0.0436, R2: 0.97)</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>2025-06-24</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>TERA</t>
         </is>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>11544</v>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>71.94</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>VOLUME STOP</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>827,249.72</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %3.15 | Peak: 71.94</t>
+      <c r="C47" s="3" t="n">
+        <v>11581</v>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>64.91</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>SÜRE DOLDU (7D)</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>748,782.89</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-0.52 | Peak: 72.11</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>TERA</t>
+          <t>ADESE</t>
         </is>
       </c>
       <c r="C48" s="1" t="n">
-        <v>11471</v>
+        <v>401707</v>
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>72.11</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
@@ -2115,32 +2115,32 @@
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>-1,607.21</t>
+          <t>-1,496.51</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0447, R2: 0.95)</t>
+          <t>(Eğim: 0.0392, R2: 0.93)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>TERA</t>
+          <t>ADESE</t>
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>11471</v>
+        <v>401707</v>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>64.91</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
@@ -2150,32 +2150,32 @@
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>741,514.84</t>
+          <t>731,355.23</t>
         </is>
       </c>
       <c r="G49" s="3" t="inlineStr">
         <is>
-          <t>P/L: %-9.98 | Peak: 72.11</t>
+          <t>P/L: %-1.93 | Peak: 1.87</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>TERA</t>
+          <t>KGYO</t>
         </is>
       </c>
       <c r="C50" s="1" t="n">
-        <v>12687</v>
+        <v>202031</v>
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>58.44</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
@@ -2185,67 +2185,67 @@
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>-1,443.95</t>
+          <t>-1,459.67</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0334, R2: 0.80)</t>
+          <t>(Eğim: 0.1775, R2: 0.75)</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>TERA</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>12687</v>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>84.54</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>SÜRE DOLDU (7D)</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>1,069,017.35</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %44.66 | Peak: 78.36</t>
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>KGYO</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>202031</v>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>STOP LOSS</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>704,234.61</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-3.31 | Peak: 3.62</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>KGYO</t>
+          <t>TRHOL</t>
         </is>
       </c>
       <c r="C52" s="1" t="n">
-        <v>295308</v>
+        <v>3880</v>
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>181.50</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>-2,135.60</t>
+          <t>-1,393.83</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.1775, R2: 0.75)</t>
+          <t>(Eğim: 0.0431, R2: 0.90)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>KGYO</t>
+          <t>TRHOL</t>
         </is>
       </c>
       <c r="C53" s="3" t="n">
-        <v>295308</v>
+        <v>3880</v>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>170.90</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>1,029,375.24</t>
+          <t>660,371.96</t>
         </is>
       </c>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t>P/L: %-3.31 | Peak: 3.62</t>
+          <t>P/L: %-5.84 | Peak: 184.00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>TRHOL</t>
+          <t>IDGYO</t>
         </is>
       </c>
       <c r="C54" s="1" t="n">
-        <v>5671</v>
+        <v>186020</v>
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>181.50</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
@@ -2325,67 +2325,67 @@
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>-1,969.83</t>
+          <t>-1,319.77</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0431, R2: 0.90)</t>
+          <t>(Eğim: 0.0303, R2: 0.85)</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>TRHOL</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="n">
-        <v>5671</v>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>170.90</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>IDGYO</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>186020</v>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>STOP LOSS</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr">
-        <is>
-          <t>965,265.69</t>
-        </is>
-      </c>
-      <c r="G55" s="3" t="inlineStr">
-        <is>
-          <t>P/L: %-5.84 | Peak: 184.00</t>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>657,730.48</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>P/L: %0.00 | Peak: 3.81</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>IDGYO</t>
+          <t>HUBVC</t>
         </is>
       </c>
       <c r="C56" s="1" t="n">
-        <v>271905</v>
+        <v>229975</v>
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
@@ -2395,67 +2395,67 @@
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>-1,927.58</t>
+          <t>-1,313.45</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0302, R2: 0.82)</t>
+          <t>(Eğim: 0.0343, R2: 0.94)</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-25</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>IDGYO</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>271905</v>
-      </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>HUBVC</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>229975</v>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
         <is>
           <t>STOP LOSS</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>961,404.63</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %0.00 | Peak: 3.81</t>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>634,443.23</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-3.15 | Peak: 2.86</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>HUBVC</t>
+          <t>CRDFA</t>
         </is>
       </c>
       <c r="C58" s="1" t="n">
-        <v>336155</v>
+        <v>36027</v>
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>17.61</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
@@ -2465,67 +2465,67 @@
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>-1,921.44</t>
+          <t>-1,261.13</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0359, R2: 0.94)</t>
+          <t>(Eğim: 0.0342, R2: 0.92)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>HUBVC</t>
+          <t>CRDFA</t>
         </is>
       </c>
       <c r="C59" s="3" t="n">
-        <v>336155</v>
+        <v>36027</v>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>17.20</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>STOP LOSS</t>
+          <t>SÜRE DOLDU (7D)</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>927,365.61</t>
+          <t>617,163.96</t>
         </is>
       </c>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>P/L: %-3.15 | Peak: 2.86</t>
+          <t>P/L: %-2.33 | Peak: 17.99</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>HUBVC</t>
+          <t>EMKEL</t>
         </is>
       </c>
       <c r="C60" s="1" t="n">
-        <v>356679</v>
+        <v>8810</v>
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>70.05</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
@@ -2535,67 +2535,67 @@
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>-1,854.49</t>
+          <t>-1,210.84</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0327, R2: 0.88)</t>
+          <t>(Eğim: 0.0421, R2: 0.85)</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>HUBVC</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="n">
-        <v>356679</v>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr">
-        <is>
-          <t>STOP LOSS</t>
-        </is>
-      </c>
-      <c r="F61" s="3" t="inlineStr">
-        <is>
-          <t>888,059.62</t>
-        </is>
-      </c>
-      <c r="G61" s="3" t="inlineStr">
-        <is>
-          <t>P/L: %-3.85 | Peak: 2.63</t>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>EMKEL</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>8810</v>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>VOLUME STOP</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>660,415.75</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>P/L: %7.42 | Peak: 76.20</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>PEKGY</t>
+          <t>YAYLA</t>
         </is>
       </c>
       <c r="C62" s="1" t="n">
-        <v>166303</v>
+        <v>17887</v>
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>36.92</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
@@ -2605,67 +2605,67 @@
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>-1,774.55</t>
+          <t>-1,293.03</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0765, R2: 0.98)</t>
+          <t>(Eğim: 0.0318, R2: 0.82)</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>2025-08-08</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>PEKGY</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>166303</v>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>YAYLA</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>17887</v>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>35.30</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
         <is>
           <t>STOP LOSS</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>1,125,164.42</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %27.15 | Peak: 6.95</t>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>628,855.23</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-4.39 | Peak: 36.92</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>MANAS</t>
+          <t>PEKGY</t>
         </is>
       </c>
       <c r="C64" s="1" t="n">
-        <v>119825</v>
+        <v>77254</v>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
@@ -2675,67 +2675,67 @@
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>-2,242.68</t>
+          <t>-1,250.05</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0399, R2: 0.81)</t>
+          <t>(Eğim: 0.0537, R2: 0.96)</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
-      </c>
-      <c r="B65" s="3" t="inlineStr">
-        <is>
-          <t>MANAS</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="n">
-        <v>119825</v>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>PEKGY</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>77254</v>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>STOP LOSS</t>
         </is>
       </c>
-      <c r="F65" s="3" t="inlineStr">
-        <is>
-          <t>1,103,921.81</t>
-        </is>
-      </c>
-      <c r="G65" s="3" t="inlineStr">
-        <is>
-          <t>P/L: %-1.49 | Peak: 9.79</t>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>630,194.76</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>P/L: %0.61 | Peak: 8.40</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>YAYLA</t>
+          <t>PEKGY</t>
         </is>
       </c>
       <c r="C66" s="1" t="n">
-        <v>31272</v>
+        <v>70021</v>
       </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>35.30</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="E66" s="1" t="inlineStr">
@@ -2745,67 +2745,67 @@
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>-2,187.57</t>
+          <t>-1,254.62</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0303, R2: 0.78)</t>
+          <t>(Eğim: 0.0381, R2: 0.94)</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>2025-08-21</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>YAYLA</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>31272</v>
-      </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>43.50</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>SÜRE DOLDU (7D)</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>1,355,423.76</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %23.23 | Peak: 45.02</t>
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>PEKGY</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>70021</v>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>STOP LOSS</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>600,420.40</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-4.33 | Peak: 9.72</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>PEKGY</t>
+          <t>CEMZY</t>
         </is>
       </c>
       <c r="C68" s="1" t="n">
-        <v>150602</v>
+        <v>24506</v>
       </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>24.50</t>
         </is>
       </c>
       <c r="E68" s="1" t="inlineStr">
@@ -2815,67 +2815,67 @@
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>-2,705.07</t>
+          <t>-1,177.39</t>
         </is>
       </c>
       <c r="G68" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0381, R2: 0.94)</t>
+          <t>(Eğim: 0.0307, R2: 0.91)</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-      <c r="B69" s="3" t="inlineStr">
-        <is>
-          <t>PEKGY</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="n">
-        <v>150602</v>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
-          <t>8.61</t>
-        </is>
-      </c>
-      <c r="E69" s="3" t="inlineStr">
-        <is>
-          <t>STOP LOSS</t>
-        </is>
-      </c>
-      <c r="F69" s="3" t="inlineStr">
-        <is>
-          <t>1,291,384.73</t>
-        </is>
-      </c>
-      <c r="G69" s="3" t="inlineStr">
-        <is>
-          <t>P/L: %-4.33 | Peak: 9.72</t>
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>CEMZY</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>24506</v>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>SÜRE DOLDU (7D)</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>699,270.73</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>P/L: %16.90 | Peak: 27.28</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>CEMZY</t>
+          <t>ISGSY</t>
         </is>
       </c>
       <c r="C70" s="1" t="n">
-        <v>52709</v>
+        <v>7380</v>
       </c>
       <c r="D70" s="1" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>94.75</t>
         </is>
       </c>
       <c r="E70" s="1" t="inlineStr">
@@ -2885,67 +2885,67 @@
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>-2,568.51</t>
+          <t>-1,382.78</t>
         </is>
       </c>
       <c r="G70" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0307, R2: 0.91)</t>
+          <t>(Eğim: 0.0355, R2: 0.82)</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>CEMZY</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>52709</v>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>28.64</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>SÜRE DOLDU (7D)</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>1,503,998.04</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %16.90 | Peak: 27.28</t>
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>ISGSY</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>7380</v>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>STOP LOSS</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>661,488.82</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-5.01 | Peak: 94.75</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>ISGSY</t>
+          <t>HEDEF</t>
         </is>
       </c>
       <c r="C72" s="1" t="n">
-        <v>15873</v>
+        <v>22005</v>
       </c>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>30.06</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
@@ -2955,54 +2955,54 @@
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>-2,976.64</t>
+          <t>-1,304.41</t>
         </is>
       </c>
       <c r="G72" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0355, R2: 0.82)</t>
+          <t>(Eğim: 0.0309, R2: 0.80)</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>ISGSY</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="n">
-        <v>15873</v>
-      </c>
-      <c r="D73" s="3" t="inlineStr">
-        <is>
-          <t>90.00</t>
-        </is>
-      </c>
-      <c r="E73" s="3" t="inlineStr">
-        <is>
-          <t>STOP LOSS</t>
-        </is>
-      </c>
-      <c r="F73" s="3" t="inlineStr">
-        <is>
-          <t>1,422,736.22</t>
-        </is>
-      </c>
-      <c r="G73" s="3" t="inlineStr">
-        <is>
-          <t>P/L: %-5.01 | Peak: 94.75</t>
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>HEDEF</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>22005</v>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>33.06</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>VOLUME STOP</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>724,725.95</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>P/L: %9.98 | Peak: 33.06</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
@@ -3011,11 +3011,11 @@
         </is>
       </c>
       <c r="C74" s="1" t="n">
-        <v>47329</v>
+        <v>19931</v>
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>30.06</t>
+          <t>36.36</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
@@ -3025,19 +3025,19 @@
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>-2,818.91</t>
+          <t>-1,414.60</t>
         </is>
       </c>
       <c r="G74" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0309, R2: 0.80)</t>
+          <t>(Eğim: 0.0379, R2: 0.79)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -3046,46 +3046,46 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>47329</v>
+        <v>19931</v>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>33.06</t>
+          <t>47.32</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>VOLUME STOP</t>
+          <t>STOP LOSS</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>1,558,748.50</t>
+          <t>939,834.04</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>P/L: %9.98 | Peak: 33.06</t>
+          <t>P/L: %30.14 | Peak: 48.34</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>HEDEF</t>
+          <t>KLRHO</t>
         </is>
       </c>
       <c r="C76" s="1" t="n">
-        <v>42869</v>
+        <v>8466</v>
       </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>36.36</t>
+          <t>111.00</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
@@ -3095,67 +3095,67 @@
       </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
-          <t>-3,085.80</t>
+          <t>-1,771.41</t>
         </is>
       </c>
       <c r="G76" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0379, R2: 0.79)</t>
+          <t>(Eğim: 0.0391, R2: 0.85)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>HEDEF</t>
+          <t>KLRHO</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>42869</v>
+        <v>8466</v>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>47.32</t>
+          <t>111.00</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>STOP LOSS</t>
+          <t>VOLUME STOP</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>2,021,418.14</t>
+          <t>936,075.14</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>P/L: %30.14 | Peak: 48.34</t>
+          <t>P/L: %0.00 | Peak: 111.20</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>KLRHO</t>
+          <t>POLHO</t>
         </is>
       </c>
       <c r="C78" s="1" t="n">
-        <v>18210</v>
+        <v>41566</v>
       </c>
       <c r="D78" s="1" t="inlineStr">
         <is>
-          <t>111.00</t>
+          <t>22.52</t>
         </is>
       </c>
       <c r="E78" s="1" t="inlineStr">
@@ -3165,67 +3165,67 @@
       </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
-          <t>-3,934.48</t>
+          <t>-1,863.33</t>
         </is>
       </c>
       <c r="G78" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0391, R2: 0.85)</t>
+          <t>(Eğim: 0.1084, R2: 0.76)</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>KLRHO</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>18210</v>
-      </c>
-      <c r="D79" s="2" t="inlineStr">
-        <is>
-          <t>111.00</t>
-        </is>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>VOLUME STOP</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>2,013,332.90</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %0.00 | Peak: 111.20</t>
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>POLHO</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>41566</v>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>STOP LOSS</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>908,270.81</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-2.58 | Peak: 22.52</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>POLHO</t>
+          <t>IEYHO</t>
         </is>
       </c>
       <c r="C80" s="1" t="n">
-        <v>89401</v>
+        <v>29779</v>
       </c>
       <c r="D80" s="1" t="inlineStr">
         <is>
-          <t>22.52</t>
+          <t>30.50</t>
         </is>
       </c>
       <c r="E80" s="1" t="inlineStr">
@@ -3235,54 +3235,54 @@
       </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
-          <t>-4,004.28</t>
+          <t>-1,805.21</t>
         </is>
       </c>
       <c r="G80" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.1084, R2: 0.76)</t>
+          <t>(Eğim: 0.0505, R2: 0.95)</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="B81" s="3" t="inlineStr">
-        <is>
-          <t>POLHO</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="n">
-        <v>89401</v>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
-          <t>21.94</t>
-        </is>
-      </c>
-      <c r="E81" s="3" t="inlineStr">
-        <is>
-          <t>STOP LOSS</t>
-        </is>
-      </c>
-      <c r="F81" s="3" t="inlineStr">
-        <is>
-          <t>1,953,530.79</t>
-        </is>
-      </c>
-      <c r="G81" s="3" t="inlineStr">
-        <is>
-          <t>P/L: %-2.58 | Peak: 22.52</t>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>IEYHO</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>29779</v>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>37.30</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>SÜRE DOLDU (7D)</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>1,106,729.96</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>P/L: %22.30 | Peak: 36.38</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr">
@@ -3291,11 +3291,11 @@
         </is>
       </c>
       <c r="C82" s="1" t="n">
-        <v>64050</v>
+        <v>28896</v>
       </c>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>30.50</t>
+          <t>38.30</t>
         </is>
       </c>
       <c r="E82" s="1" t="inlineStr">
@@ -3305,67 +3305,67 @@
       </c>
       <c r="F82" s="1" t="inlineStr">
         <is>
-          <t>-3,901.26</t>
+          <t>-2,200.25</t>
         </is>
       </c>
       <c r="G82" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0505, R2: 0.95)</t>
+          <t>(Eğim: 0.0342, R2: 0.92)</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
         <is>
           <t>IEYHO</t>
         </is>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>64050</v>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>37.30</t>
-        </is>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>SÜRE DOLDU (7D)</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>2,380,385.56</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %22.30 | Peak: 36.38</t>
+      <c r="C83" s="3" t="n">
+        <v>28896</v>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>37.50</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>STOP LOSS</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>1,079,232.55</t>
+        </is>
+      </c>
+      <c r="G83" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-2.09 | Peak: 38.30</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr">
         <is>
-          <t>IEYHO</t>
+          <t>CRDFA</t>
         </is>
       </c>
       <c r="C84" s="1" t="n">
-        <v>62151</v>
+        <v>26994</v>
       </c>
       <c r="D84" s="1" t="inlineStr">
         <is>
-          <t>38.30</t>
+          <t>39.98</t>
         </is>
       </c>
       <c r="E84" s="1" t="inlineStr">
@@ -3375,32 +3375,32 @@
       </c>
       <c r="F84" s="1" t="inlineStr">
         <is>
-          <t>-4,758.45</t>
+          <t>-2,146.00</t>
         </is>
       </c>
       <c r="G84" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0342, R2: 0.92)</t>
+          <t>(Eğim: 0.0340, R2: 0.93)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>IEYHO</t>
+          <t>CRDFA</t>
         </is>
       </c>
       <c r="C85" s="3" t="n">
-        <v>62151</v>
+        <v>26994</v>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>37.50</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
@@ -3410,19 +3410,19 @@
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>2,321,242.72</t>
+          <t>967,694.43</t>
         </is>
       </c>
       <c r="G85" s="3" t="inlineStr">
         <is>
-          <t>P/L: %-2.09 | Peak: 38.30</t>
+          <t>P/L: %-9.95 | Peak: 39.98</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
@@ -3431,11 +3431,11 @@
         </is>
       </c>
       <c r="C86" s="1" t="n">
-        <v>58060</v>
+        <v>29867</v>
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>39.98</t>
+          <t>32.40</t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
@@ -3445,67 +3445,67 @@
       </c>
       <c r="F86" s="1" t="inlineStr">
         <is>
-          <t>-4,638.53</t>
+          <t>-1,931.80</t>
         </is>
       </c>
       <c r="G86" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0340, R2: 0.93)</t>
+          <t>(Eğim: 0.0304, R2: 0.87)</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="inlineStr">
-        <is>
-          <t>2025-10-16</t>
-        </is>
-      </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t>CRDFA</t>
         </is>
       </c>
-      <c r="C87" s="3" t="n">
-        <v>58060</v>
-      </c>
-      <c r="D87" s="3" t="inlineStr">
-        <is>
-          <t>36.00</t>
-        </is>
-      </c>
-      <c r="E87" s="3" t="inlineStr">
+      <c r="C87" s="2" t="n">
+        <v>29867</v>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
         <is>
           <t>STOP LOSS</t>
         </is>
       </c>
-      <c r="F87" s="3" t="inlineStr">
-        <is>
-          <t>2,081,341.15</t>
-        </is>
-      </c>
-      <c r="G87" s="3" t="inlineStr">
-        <is>
-          <t>P/L: %-9.95 | Peak: 39.98</t>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>990,650.14</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>P/L: %2.78 | Peak: 34.00</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B88" s="1" t="inlineStr">
         <is>
-          <t>CRDFA</t>
+          <t>TRHOL</t>
         </is>
       </c>
       <c r="C88" s="1" t="n">
-        <v>64238</v>
+        <v>2452</v>
       </c>
       <c r="D88" s="1" t="inlineStr">
         <is>
-          <t>32.40</t>
+          <t>404.00</t>
         </is>
       </c>
       <c r="E88" s="1" t="inlineStr">
@@ -3515,32 +3515,32 @@
       </c>
       <c r="F88" s="1" t="inlineStr">
         <is>
-          <t>-4,132.77</t>
+          <t>-1,939.08</t>
         </is>
       </c>
       <c r="G88" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0304, R2: 0.87)</t>
+          <t>(Eğim: 0.0337, R2: 0.78)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>CRDFA</t>
+          <t>TRHOL</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>64238</v>
+        <v>2452</v>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>33.30</t>
+          <t>404.25</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
@@ -3550,32 +3550,32 @@
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>2,130,714.33</t>
+          <t>987,299.48</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>P/L: %2.78 | Peak: 34.00</t>
+          <t>P/L: %0.06 | Peak: 418.00</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B90" s="1" t="inlineStr">
         <is>
-          <t>TRHOL</t>
+          <t>TEHOL</t>
         </is>
       </c>
       <c r="C90" s="1" t="n">
-        <v>5274</v>
+        <v>24682</v>
       </c>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t>404.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
@@ -3585,67 +3585,67 @@
       </c>
       <c r="F90" s="1" t="inlineStr">
         <is>
-          <t>-4,243.06</t>
+          <t>-1,955.08</t>
         </is>
       </c>
       <c r="G90" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0337, R2: 0.78)</t>
+          <t>(Eğim: 0.0347, R2: 0.96)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>TRHOL</t>
+          <t>TEHOL</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
-        <v>5274</v>
+        <v>24682</v>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>404.25</t>
+          <t>41.50</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>STOP LOSS</t>
+          <t>SÜRE DOLDU (7D)</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>2,123,507.41</t>
+          <t>1,020,299.31</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>P/L: %0.06 | Peak: 418.00</t>
+          <t>P/L: %3.75 | Peak: 41.30</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B92" s="1" t="inlineStr">
         <is>
-          <t>TRHOL</t>
+          <t>UFUK</t>
         </is>
       </c>
       <c r="C92" s="1" t="n">
-        <v>5308</v>
+        <v>548</v>
       </c>
       <c r="D92" s="1" t="inlineStr">
         <is>
-          <t>400.00</t>
+          <t>1861.00</t>
         </is>
       </c>
       <c r="E92" s="1" t="inlineStr">
@@ -3655,54 +3655,54 @@
       </c>
       <c r="F92" s="1" t="inlineStr">
         <is>
-          <t>-3,938.99</t>
+          <t>-1,568.34</t>
         </is>
       </c>
       <c r="G92" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0433, R2: 0.94)</t>
+          <t>(Eğim: 0.0549, R2: 0.94)</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>TRHOL</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>5308</v>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>458.00</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>SÜRE DOLDU (7D)</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>2,422,262.88</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %14.50 | Peak: 417.25</t>
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>UFUK</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>548</v>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>1825.00</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>VOLUME STOP</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="inlineStr">
+        <is>
+          <t>996,531.46</t>
+        </is>
+      </c>
+      <c r="G93" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-1.93 | Peak: 1862.00</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
@@ -3711,11 +3711,11 @@
         </is>
       </c>
       <c r="C94" s="1" t="n">
-        <v>1301</v>
+        <v>527</v>
       </c>
       <c r="D94" s="1" t="inlineStr">
         <is>
-          <t>1861.00</t>
+          <t>1890.00</t>
         </is>
       </c>
       <c r="E94" s="1" t="inlineStr">
@@ -3725,19 +3725,19 @@
       </c>
       <c r="F94" s="1" t="inlineStr">
         <is>
-          <t>-3,740.44</t>
+          <t>-1,490.60</t>
         </is>
       </c>
       <c r="G94" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0547, R2: 0.92)</t>
+          <t>(Eğim: 0.0476, R2: 0.86)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -3746,11 +3746,11 @@
         </is>
       </c>
       <c r="C95" s="3" t="n">
-        <v>1301</v>
+        <v>527</v>
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>1825.00</t>
+          <t>1856.00</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
@@ -3760,32 +3760,32 @@
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>2,365,835.91</t>
+          <t>974,665.17</t>
         </is>
       </c>
       <c r="G95" s="3" t="inlineStr">
         <is>
-          <t>P/L: %-1.93 | Peak: 1862.00</t>
+          <t>P/L: %-1.80 | Peak: 1890.00</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>UFUK</t>
+          <t>IEYHO</t>
         </is>
       </c>
       <c r="C96" s="1" t="n">
-        <v>1251</v>
+        <v>19730</v>
       </c>
       <c r="D96" s="1" t="inlineStr">
         <is>
-          <t>1890.00</t>
+          <t>49.40</t>
         </is>
       </c>
       <c r="E96" s="1" t="inlineStr">
@@ -3795,67 +3795,67 @@
       </c>
       <c r="F96" s="1" t="inlineStr">
         <is>
-          <t>-3,282.87</t>
+          <t>-1,946.18</t>
         </is>
       </c>
       <c r="G96" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0516, R2: 0.88)</t>
+          <t>(Eğim: 0.0327, R2: 0.91)</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="inlineStr">
-        <is>
-          <t>2025-11-11</t>
-        </is>
-      </c>
-      <c r="B97" s="3" t="inlineStr">
-        <is>
-          <t>UFUK</t>
-        </is>
-      </c>
-      <c r="C97" s="3" t="n">
-        <v>1251</v>
-      </c>
-      <c r="D97" s="3" t="inlineStr">
-        <is>
-          <t>1856.00</t>
-        </is>
-      </c>
-      <c r="E97" s="3" t="inlineStr">
-        <is>
-          <t>VOLUME STOP</t>
-        </is>
-      </c>
-      <c r="F97" s="3" t="inlineStr">
-        <is>
-          <t>2,313,929.42</t>
-        </is>
-      </c>
-      <c r="G97" s="3" t="inlineStr">
-        <is>
-          <t>P/L: %-1.80 | Peak: 1890.00</t>
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>IEYHO</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>19730</v>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>56.30</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>SÜRE DOLDU (7D)</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>1,106,631.21</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>P/L: %13.97 | Peak: 55.85</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="B98" s="1" t="inlineStr">
         <is>
-          <t>UFUK</t>
+          <t>IEYHO</t>
         </is>
       </c>
       <c r="C98" s="1" t="n">
-        <v>1311</v>
+        <v>19708</v>
       </c>
       <c r="D98" s="1" t="inlineStr">
         <is>
-          <t>1765.00</t>
+          <t>56.15</t>
         </is>
       </c>
       <c r="E98" s="1" t="inlineStr">
@@ -3865,67 +3865,67 @@
       </c>
       <c r="F98" s="1" t="inlineStr">
         <is>
-          <t>-4,613.41</t>
+          <t>-2,186.23</t>
         </is>
       </c>
       <c r="G98" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0426, R2: 0.76)</t>
+          <t>(Eğim: 0.0331, R2: 0.93)</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>2025-11-13</t>
-        </is>
-      </c>
-      <c r="B99" s="3" t="inlineStr">
-        <is>
-          <t>UFUK</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="n">
-        <v>1311</v>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
-        <is>
-          <t>1711.00</t>
-        </is>
-      </c>
-      <c r="E99" s="3" t="inlineStr">
-        <is>
-          <t>STOP LOSS</t>
-        </is>
-      </c>
-      <c r="F99" s="3" t="inlineStr">
-        <is>
-          <t>2,234,021.34</t>
-        </is>
-      </c>
-      <c r="G99" s="3" t="inlineStr">
-        <is>
-          <t>P/L: %-3.06 | Peak: 1765.00</t>
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>IEYHO</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>19708</v>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>58.00</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>SÜRE DOLDU (7D)</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>1,138,591.64</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>P/L: %3.29 | Peak: 57.70</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B100" s="1" t="inlineStr">
         <is>
-          <t>IEYHO</t>
+          <t>GUNDG</t>
         </is>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44591</v>
+        <v>6325</v>
       </c>
       <c r="D100" s="1" t="inlineStr">
         <is>
-          <t>50.10</t>
+          <t>180.00</t>
         </is>
       </c>
       <c r="E100" s="1" t="inlineStr">
@@ -3935,67 +3935,67 @@
       </c>
       <c r="F100" s="1" t="inlineStr">
         <is>
-          <t>-4,455.71</t>
+          <t>-2,185.36</t>
         </is>
       </c>
       <c r="G100" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0348, R2: 0.93)</t>
+          <t>(Eğim: 0.0407, R2: 0.82)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>IEYHO</t>
+          <t>GUNDG</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>44591</v>
+        <v>6325</v>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>56.15</t>
+          <t>186.80</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>SÜRE DOLDU (7D)</t>
+          <t>STOP LOSS</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>2,494,321.44</t>
+          <t>1,176,961.64</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>P/L: %12.08 | Peak: 56.30</t>
+          <t>P/L: %3.78 | Peak: 207.50</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B102" s="1" t="inlineStr">
         <is>
-          <t>IEYHO</t>
+          <t>GUNDG</t>
         </is>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44541</v>
+        <v>6110</v>
       </c>
       <c r="D102" s="1" t="inlineStr">
         <is>
-          <t>56.00</t>
+          <t>192.60</t>
         </is>
       </c>
       <c r="E102" s="1" t="inlineStr">
@@ -4005,67 +4005,67 @@
       </c>
       <c r="F102" s="1" t="inlineStr">
         <is>
-          <t>-4,963.15</t>
+          <t>-2,177.97</t>
         </is>
       </c>
       <c r="G102" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0325, R2: 0.92)</t>
+          <t>(Eğim: 0.0522, R2: 0.95)</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>IEYHO</t>
-        </is>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>44541</v>
-      </c>
-      <c r="D103" s="2" t="inlineStr">
-        <is>
-          <t>58.05</t>
-        </is>
-      </c>
-      <c r="E103" s="2" t="inlineStr">
-        <is>
-          <t>SÜRE DOLDU (7D)</t>
-        </is>
-      </c>
-      <c r="F103" s="2" t="inlineStr">
-        <is>
-          <t>2,575,470.66</t>
-        </is>
-      </c>
-      <c r="G103" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %3.66 | Peak: 58.00</t>
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>GUNDG</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>6110</v>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
+        <is>
+          <t>178.80</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>STOP LOSS</t>
+        </is>
+      </c>
+      <c r="F103" s="3" t="inlineStr">
+        <is>
+          <t>1,088,105.11</t>
+        </is>
+      </c>
+      <c r="G103" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-7.17 | Peak: 192.60</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B104" s="1" t="inlineStr">
         <is>
-          <t>GUNDG</t>
+          <t>ALKLC</t>
         </is>
       </c>
       <c r="C104" s="1" t="n">
-        <v>14308</v>
+        <v>7609</v>
       </c>
       <c r="D104" s="1" t="inlineStr">
         <is>
-          <t>180.00</t>
+          <t>142.99</t>
         </is>
       </c>
       <c r="E104" s="1" t="inlineStr">
@@ -4075,67 +4075,67 @@
       </c>
       <c r="F104" s="1" t="inlineStr">
         <is>
-          <t>-5,120.22</t>
+          <t>-2,108.62</t>
         </is>
       </c>
       <c r="G104" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0407, R2: 0.82)</t>
+          <t>(Eğim: 0.0360, R2: 0.89)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>GUNDG</t>
+          <t>ALKLC</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
-        <v>14308</v>
+        <v>7609</v>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>186.80</t>
+          <t>171.99</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>STOP LOSS</t>
+          <t>SÜRE DOLDU (7D)</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>2,662,268.75</t>
+          <t>1,303,962.68</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>P/L: %3.78 | Peak: 207.50</t>
+          <t>P/L: %20.28 | Peak: 179.89</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B106" s="1" t="inlineStr">
         <is>
-          <t>GUNDG</t>
+          <t>ALKLC</t>
         </is>
       </c>
       <c r="C106" s="1" t="n">
-        <v>13822</v>
+        <v>7679</v>
       </c>
       <c r="D106" s="1" t="inlineStr">
         <is>
-          <t>192.60</t>
+          <t>169.79</t>
         </is>
       </c>
       <c r="E106" s="1" t="inlineStr">
@@ -4145,67 +4145,67 @@
       </c>
       <c r="F106" s="1" t="inlineStr">
         <is>
-          <t>-5,172.77</t>
+          <t>-2,480.05</t>
         </is>
       </c>
       <c r="G106" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0522, R2: 0.95)</t>
+          <t>(Eğim: 0.0351, R2: 0.89)</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>2025-12-09</t>
-        </is>
-      </c>
-      <c r="B107" s="3" t="inlineStr">
-        <is>
-          <t>GUNDG</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="n">
-        <v>13822</v>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
-        <is>
-          <t>178.80</t>
-        </is>
-      </c>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>STOP LOSS</t>
-        </is>
-      </c>
-      <c r="F107" s="3" t="inlineStr">
-        <is>
-          <t>2,461,258.13</t>
-        </is>
-      </c>
-      <c r="G107" s="3" t="inlineStr">
-        <is>
-          <t>P/L: %-7.17 | Peak: 192.60</t>
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>ALKLC</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>7679</v>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>226.10</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>SÜRE DOLDU (7D)</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>1,730,269.46</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>P/L: %33.16 | Peak: 227.00</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="B108" s="1" t="inlineStr">
         <is>
-          <t>ALKLC</t>
+          <t>KLRHO</t>
         </is>
       </c>
       <c r="C108" s="1" t="n">
-        <v>17212</v>
+        <v>5550</v>
       </c>
       <c r="D108" s="1" t="inlineStr">
         <is>
-          <t>142.99</t>
+          <t>311.75</t>
         </is>
       </c>
       <c r="E108" s="1" t="inlineStr">
@@ -4215,67 +4215,67 @@
       </c>
       <c r="F108" s="1" t="inlineStr">
         <is>
-          <t>-4,868.66</t>
+          <t>-3,403.47</t>
         </is>
       </c>
       <c r="G108" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0360, R2: 0.89)</t>
+          <t>(Eğim: 0.0375, R2: 0.98)</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="B109" s="2" t="inlineStr">
-        <is>
-          <t>ALKLC</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>17212</v>
-      </c>
-      <c r="D109" s="2" t="inlineStr">
-        <is>
-          <t>171.99</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>SÜRE DOLDU (7D)</t>
-        </is>
-      </c>
-      <c r="F109" s="2" t="inlineStr">
-        <is>
-          <t>2,949,540.47</t>
-        </is>
-      </c>
-      <c r="G109" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %20.28 | Peak: 179.89</t>
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>KLRHO</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="n">
+        <v>5550</v>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
+        <is>
+          <t>306.25</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>STOP LOSS</t>
+        </is>
+      </c>
+      <c r="F109" s="3" t="inlineStr">
+        <is>
+          <t>1,692,884.66</t>
+        </is>
+      </c>
+      <c r="G109" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-1.76 | Peak: 330.50</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="B110" s="1" t="inlineStr">
         <is>
-          <t>ALKLC</t>
+          <t>KLRHO</t>
         </is>
       </c>
       <c r="C110" s="1" t="n">
-        <v>17371</v>
+        <v>5527</v>
       </c>
       <c r="D110" s="1" t="inlineStr">
         <is>
-          <t>169.79</t>
+          <t>306.25</t>
         </is>
       </c>
       <c r="E110" s="1" t="inlineStr">
@@ -4285,32 +4285,32 @@
       </c>
       <c r="F110" s="1" t="inlineStr">
         <is>
-          <t>-5,820.45</t>
+          <t>-3,144.38</t>
         </is>
       </c>
       <c r="G110" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0351, R2: 0.89)</t>
+          <t>(Eğim: 0.0301, R2: 0.92)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>ALKLC</t>
+          <t>KLRHO</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>17371</v>
+        <v>5527</v>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>226.10</t>
+          <t>436.75</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
@@ -4320,19 +4320,19 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>3,913,907.59</t>
+          <t>2,405,945.03</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>P/L: %33.16 | Peak: 227.00</t>
+          <t>P/L: %42.61 | Peak: 436.25</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B112" s="1" t="inlineStr">
@@ -4341,11 +4341,11 @@
         </is>
       </c>
       <c r="C112" s="1" t="n">
-        <v>12554</v>
+        <v>5443</v>
       </c>
       <c r="D112" s="1" t="inlineStr">
         <is>
-          <t>311.75</t>
+          <t>442.00</t>
         </is>
       </c>
       <c r="E112" s="1" t="inlineStr">
@@ -4355,19 +4355,19 @@
       </c>
       <c r="F112" s="1" t="inlineStr">
         <is>
-          <t>-7,629.33</t>
+          <t>-4,672.58</t>
         </is>
       </c>
       <c r="G112" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0375, R2: 0.98)</t>
+          <t>(Eğim: 0.0317, R2: 0.91)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
@@ -4376,11 +4376,11 @@
         </is>
       </c>
       <c r="C113" s="3" t="n">
-        <v>12554</v>
+        <v>5443</v>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>306.25</t>
+          <t>400.00</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4390,32 +4390,32 @@
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>3,829,343.85</t>
+          <t>2,168,173.02</t>
         </is>
       </c>
       <c r="G113" s="3" t="inlineStr">
         <is>
-          <t>P/L: %-1.76 | Peak: 330.50</t>
+          <t>P/L: %-9.50 | Peak: 442.00</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B114" s="1" t="inlineStr">
         <is>
-          <t>KLRHO</t>
+          <t>EDATA</t>
         </is>
       </c>
       <c r="C114" s="1" t="n">
-        <v>11674</v>
+        <v>258115</v>
       </c>
       <c r="D114" s="1" t="inlineStr">
         <is>
-          <t>328.00</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E114" s="1" t="inlineStr">
@@ -4425,67 +4425,67 @@
       </c>
       <c r="F114" s="1" t="inlineStr">
         <is>
-          <t>-7,386.30</t>
+          <t>-4,329.21</t>
         </is>
       </c>
       <c r="G114" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0311, R2: 0.95)</t>
+          <t>(Eğim: 0.0315, R2: 0.89)</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>KLRHO</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>11674</v>
-      </c>
-      <c r="D115" s="2" t="inlineStr">
-        <is>
-          <t>442.00</t>
-        </is>
-      </c>
-      <c r="E115" s="2" t="inlineStr">
-        <is>
-          <t>SÜRE DOLDU (7D)</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>5,142,201.89</t>
-        </is>
-      </c>
-      <c r="G115" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %34.76 | Peak: 436.75</t>
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>EDATA</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>258115</v>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>STOP LOSS</t>
+        </is>
+      </c>
+      <c r="F115" s="3" t="inlineStr">
+        <is>
+          <t>2,020,397.16</t>
+        </is>
+      </c>
+      <c r="G115" s="3" t="inlineStr">
+        <is>
+          <t>P/L: %-6.43 | Peak: 8.40</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B116" s="1" t="inlineStr">
         <is>
-          <t>KLRHO</t>
+          <t>EDATA</t>
         </is>
       </c>
       <c r="C116" s="1" t="n">
-        <v>12855</v>
+        <v>247597</v>
       </c>
       <c r="D116" s="1" t="inlineStr">
         <is>
-          <t>400.00</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="E116" s="1" t="inlineStr">
@@ -4495,32 +4495,32 @@
       </c>
       <c r="F116" s="1" t="inlineStr">
         <is>
-          <t>-10,082.11</t>
+          <t>-4,035.11</t>
         </is>
       </c>
       <c r="G116" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0332, R2: 0.93)</t>
+          <t>(Eğim: 0.0317, R2: 0.90)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>KLRHO</t>
+          <t>EDATA</t>
         </is>
       </c>
       <c r="C117" s="3" t="n">
-        <v>12855</v>
+        <v>247597</v>
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>369.00</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
@@ -4530,32 +4530,32 @@
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>4,723,925.90</t>
+          <t>1,999,960.45</t>
         </is>
       </c>
       <c r="G117" s="3" t="inlineStr">
         <is>
-          <t>P/L: %-7.75 | Peak: 400.00</t>
+          <t>P/L: %-0.61 | Peak: 8.35</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B118" s="1" t="inlineStr">
         <is>
-          <t>EDATA</t>
+          <t>TCKRC</t>
         </is>
       </c>
       <c r="C118" s="1" t="n">
-        <v>601008</v>
+        <v>20920</v>
       </c>
       <c r="D118" s="1" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>95.60</t>
         </is>
       </c>
       <c r="E118" s="1" t="inlineStr">
@@ -4565,32 +4565,32 @@
       </c>
       <c r="F118" s="1" t="inlineStr">
         <is>
-          <t>-9,444.91</t>
+          <t>-3,991.42</t>
         </is>
       </c>
       <c r="G118" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0321, R2: 0.88)</t>
+          <t>(Eğim: 0.0343, R2: 0.97)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>EDATA</t>
+          <t>TCKRC</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
-        <v>601008</v>
+        <v>20920</v>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>99.75</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
@@ -4600,32 +4600,32 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>4,854,981.41</t>
+          <t>2,078,605.04</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>P/L: %3.18 | Peak: 8.35</t>
+          <t>P/L: %4.34 | Peak: 104.80</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="B120" s="1" t="inlineStr">
         <is>
-          <t>EDATA</t>
+          <t>SEGMN</t>
         </is>
       </c>
       <c r="C120" s="1" t="n">
-        <v>544280</v>
+        <v>67751</v>
       </c>
       <c r="D120" s="1" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>30.68</t>
         </is>
       </c>
       <c r="E120" s="1" t="inlineStr">
@@ -4635,67 +4635,67 @@
       </c>
       <c r="F120" s="1" t="inlineStr">
         <is>
-          <t>-9,706.18</t>
+          <t>-4,152.86</t>
         </is>
       </c>
       <c r="G120" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0300, R2: 0.84)</t>
+          <t>(Eğim: 0.0411, R2: 0.85)</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="inlineStr">
-        <is>
-          <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="B121" s="3" t="inlineStr">
-        <is>
-          <t>EDATA</t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="n">
-        <v>544280</v>
-      </c>
-      <c r="D121" s="3" t="inlineStr">
-        <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="E121" s="3" t="inlineStr">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>SEGMN</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>67751</v>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
         <is>
           <t>STOP LOSS</t>
         </is>
       </c>
-      <c r="F121" s="3" t="inlineStr">
-        <is>
-          <t>4,824,697.43</t>
-        </is>
-      </c>
-      <c r="G121" s="3" t="inlineStr">
-        <is>
-          <t>P/L: %-0.22 | Peak: 9.27</t>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>2,362,389.57</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>P/L: %14.08 | Peak: 36.32</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="B122" s="1" t="inlineStr">
         <is>
-          <t>TCKRC</t>
+          <t>SEGMN</t>
         </is>
       </c>
       <c r="C122" s="1" t="n">
-        <v>49181</v>
+        <v>61360</v>
       </c>
       <c r="D122" s="1" t="inlineStr">
         <is>
-          <t>98.10</t>
+          <t>38.50</t>
         </is>
       </c>
       <c r="E122" s="1" t="inlineStr">
@@ -4705,54 +4705,54 @@
       </c>
       <c r="F122" s="1" t="inlineStr">
         <is>
-          <t>-9,607.91</t>
+          <t>-4,695.15</t>
         </is>
       </c>
       <c r="G122" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0337, R2: 0.96)</t>
+          <t>(Eğim: 0.0406, R2: 0.85)</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="B123" s="3" t="inlineStr">
-        <is>
-          <t>TCKRC</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="n">
-        <v>49181</v>
-      </c>
-      <c r="D123" s="3" t="inlineStr">
-        <is>
-          <t>95.00</t>
-        </is>
-      </c>
-      <c r="E123" s="3" t="inlineStr">
-        <is>
-          <t>STOP LOSS</t>
-        </is>
-      </c>
-      <c r="F123" s="3" t="inlineStr">
-        <is>
-          <t>4,653,242.70</t>
-        </is>
-      </c>
-      <c r="G123" s="3" t="inlineStr">
-        <is>
-          <t>P/L: %-3.16 | Peak: 98.10</t>
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>SEGMN</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>61360</v>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>42.34</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>VOLUME STOP</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>2,588,091.29</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="inlineStr">
+        <is>
+          <t>P/L: %9.97 | Peak: 42.34</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B124" s="1" t="inlineStr">
@@ -4761,11 +4761,11 @@
         </is>
       </c>
       <c r="C124" s="1" t="n">
-        <v>140921</v>
+        <v>55586</v>
       </c>
       <c r="D124" s="1" t="inlineStr">
         <is>
-          <t>33.02</t>
+          <t>46.56</t>
         </is>
       </c>
       <c r="E124" s="1" t="inlineStr">
@@ -4775,185 +4775,45 @@
       </c>
       <c r="F124" s="1" t="inlineStr">
         <is>
-          <t>-9,275.21</t>
+          <t>-5,169.11</t>
         </is>
       </c>
       <c r="G124" s="1" t="inlineStr">
         <is>
-          <t>(Eğim: 0.0418, R2: 0.86)</t>
+          <t>(Eğim: 0.0401, R2: 0.85)</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
         <is>
           <t>SEGMN</t>
         </is>
       </c>
-      <c r="C125" s="2" t="n">
-        <v>140921</v>
-      </c>
-      <c r="D125" s="2" t="inlineStr">
-        <is>
-          <t>35.00</t>
-        </is>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
+      <c r="C125" s="3" t="n">
+        <v>55586</v>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>46.08</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
         <is>
           <t>STOP LOSS</t>
         </is>
       </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>4,913,095.32</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %6.00 | Peak: 36.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="B126" s="1" t="inlineStr">
-        <is>
-          <t>SEGMN</t>
-        </is>
-      </c>
-      <c r="C126" s="1" t="n">
-        <v>127612</v>
-      </c>
-      <c r="D126" s="1" t="inlineStr">
-        <is>
-          <t>38.50</t>
-        </is>
-      </c>
-      <c r="E126" s="1" t="inlineStr">
-        <is>
-          <t>ALIS</t>
-        </is>
-      </c>
-      <c r="F126" s="1" t="inlineStr">
-        <is>
-          <t>-9,792.80</t>
-        </is>
-      </c>
-      <c r="G126" s="1" t="inlineStr">
-        <is>
-          <t>(Eğim: 0.0406, R2: 0.85)</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>SEGMN</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="n">
-        <v>127612</v>
-      </c>
-      <c r="D127" s="2" t="inlineStr">
-        <is>
-          <t>42.34</t>
-        </is>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>VOLUME STOP</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>5,382,493.11</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="inlineStr">
-        <is>
-          <t>P/L: %9.97 | Peak: 42.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="B128" s="1" t="inlineStr">
-        <is>
-          <t>SEGMN</t>
-        </is>
-      </c>
-      <c r="C128" s="1" t="n">
-        <v>115603</v>
-      </c>
-      <c r="D128" s="1" t="inlineStr">
-        <is>
-          <t>46.56</t>
-        </is>
-      </c>
-      <c r="E128" s="1" t="inlineStr">
-        <is>
-          <t>ALIS</t>
-        </is>
-      </c>
-      <c r="F128" s="1" t="inlineStr">
-        <is>
-          <t>-10,747.68</t>
-        </is>
-      </c>
-      <c r="G128" s="1" t="inlineStr">
-        <is>
-          <t>(Eğim: 0.0401, R2: 0.85)</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="3" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="B129" s="3" t="inlineStr">
-        <is>
-          <t>SEGMN</t>
-        </is>
-      </c>
-      <c r="C129" s="3" t="n">
-        <v>115603</v>
-      </c>
-      <c r="D129" s="3" t="inlineStr">
-        <is>
-          <t>46.08</t>
-        </is>
-      </c>
-      <c r="E129" s="3" t="inlineStr">
-        <is>
-          <t>STOP LOSS</t>
-        </is>
-      </c>
-      <c r="F129" s="3" t="inlineStr">
-        <is>
-          <t>5,305,584.80</t>
-        </is>
-      </c>
-      <c r="G129" s="3" t="inlineStr">
+      <c r="F125" s="3" t="inlineStr">
+        <is>
+          <t>2,551,111.06</t>
+        </is>
+      </c>
+      <c r="G125" s="3" t="inlineStr">
         <is>
           <t>P/L: %-1.03 | Peak: 51.20</t>
         </is>
